--- a/pred_ohlcv/54_21/2020-01-16 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 SNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1096484.7472</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-125908.7824000004</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-131367.7824000004</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-180643.9158000004</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-454671.0006000004</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-407763.4527000004</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-331378.5435000004</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-8881.454900000368</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>330133.3762722416</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>311428.8005722417</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>401083.9292722417</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>401083.9292722417</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>418219.0720722417</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>682047.0582722416</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>582047.0582722416</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>595639.9880722417</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>595639.9880722417</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>613706.0021722417</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>613706.0021722417</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>581356.5556722417</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>599476.6132722418</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>599476.6132722418</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>599476.6132722418</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>625259.5525722418</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>613033.4008722417</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1155327.681329101</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1100764.461929101</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1150501.461929101</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1165501.461929101</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1104301.461929101</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1104389.461929101</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1104345.461929101</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1097189.601029101</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1097233.601029101</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1124605.259029101</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1124649.259029101</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>984649.2590291009</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>984735.3176291009</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>984735.3176291009</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>924847.8051291009</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>925347.8051291009</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>213599.6160291009</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>213599.6160291009</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>126858.5759291009</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 SNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1096484.7472</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1096484.7472</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-929043.8232000003</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-929043.8232000003</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-688961.8523000004</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-525649.9378000004</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-525649.9378000004</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-525649.9378000004</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-525649.9378000004</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-356922.7368000004</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-125908.7824000004</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-125908.7824000004</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-131367.7824000004</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-180643.9158000004</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-454671.0006000004</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-407763.4527000004</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-331378.5435000004</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-8881.454900000368</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>330133.3762722416</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>311428.8005722417</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>401083.9292722417</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>401083.9292722417</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>418219.0720722417</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>682047.0582722416</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>582047.0582722416</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>595639.9880722417</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>595639.9880722417</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>613706.0021722417</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>613706.0021722417</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>581356.5556722417</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>599476.6132722418</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>599476.6132722418</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>599476.6132722418</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>625259.5525722418</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>613033.4008722417</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1050518.311229101</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1155327.681329101</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1100764.461929101</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1150501.461929101</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1165501.461929101</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1104301.461929101</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1104389.461929101</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1104345.461929101</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1097189.601029101</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1097233.601029101</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1124605.259029101</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1124649.259029101</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>984649.2590291009</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>984735.3176291009</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>984735.3176291009</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>924847.8051291009</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>925347.8051291009</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
